--- a/nesk_i_fonda.xlsx
+++ b/nesk_i_fonda.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Skolos (paryškintas skaičius, kiek sumokėta, pasviręs, kiek reikia)</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Klasės nuotrauka*:</t>
   </si>
   <si>
-    <t>Klasės fondas**:</t>
+    <t>Klasės fondas:</t>
   </si>
   <si>
     <t>Balčiūnaitė Gabija</t>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Suma:</t>
+  </si>
+  <si>
+    <t>Žalias skaičius reiškia, jog mokestis, jau sumokėtas. Reikalinga suma tampa 0.</t>
   </si>
 </sst>
 </file>
@@ -284,7 +287,40 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -340,7 +376,7 @@
       </c>
       <c r="D4" s="8" t="str">
         <f t="shared" ref="D4:D35" si="2">F4+H4</f>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E4" s="8">
         <v>0.0</v>
@@ -352,7 +388,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -365,7 +401,7 @@
       </c>
       <c r="D5" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E5" s="8">
         <v>0.0</v>
@@ -377,7 +413,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -390,7 +426,7 @@
       </c>
       <c r="D6" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E6" s="8">
         <v>0.0</v>
@@ -402,7 +438,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -415,7 +451,7 @@
       </c>
       <c r="D7" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E7" s="8">
         <v>0.0</v>
@@ -427,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -440,7 +476,7 @@
       </c>
       <c r="D8" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E8" s="8">
         <v>0.0</v>
@@ -452,7 +488,7 @@
         <v>0.0</v>
       </c>
       <c r="H8" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -465,7 +501,7 @@
       </c>
       <c r="D9" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E9" s="8">
         <v>0.0</v>
@@ -477,7 +513,7 @@
         <v>0.0</v>
       </c>
       <c r="H9" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -490,7 +526,7 @@
       </c>
       <c r="D10" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E10" s="8">
         <v>0.0</v>
@@ -502,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="H10" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +551,7 @@
       </c>
       <c r="D11" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E11" s="8">
         <v>0.0</v>
@@ -527,7 +563,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -540,7 +576,7 @@
       </c>
       <c r="D12" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E12" s="8">
         <v>0.0</v>
@@ -552,7 +588,7 @@
         <v>0.0</v>
       </c>
       <c r="H12" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -565,7 +601,7 @@
       </c>
       <c r="D13" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E13" s="8">
         <v>0.0</v>
@@ -577,7 +613,7 @@
         <v>0.0</v>
       </c>
       <c r="H13" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +626,7 @@
       </c>
       <c r="D14" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E14" s="8">
         <v>0.0</v>
@@ -602,7 +638,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -615,7 +651,7 @@
       </c>
       <c r="D15" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E15" s="8">
         <v>0.0</v>
@@ -627,7 +663,7 @@
         <v>0.0</v>
       </c>
       <c r="H15" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -640,7 +676,7 @@
       </c>
       <c r="D16" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E16" s="8">
         <v>0.0</v>
@@ -652,7 +688,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -665,7 +701,7 @@
       </c>
       <c r="D17" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E17" s="8">
         <v>0.0</v>
@@ -677,7 +713,7 @@
         <v>0.0</v>
       </c>
       <c r="H17" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +726,7 @@
       </c>
       <c r="D18" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E18" s="8">
         <v>0.0</v>
@@ -702,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -715,7 +751,7 @@
       </c>
       <c r="D19" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E19" s="8">
         <v>0.0</v>
@@ -727,7 +763,7 @@
         <v>0.0</v>
       </c>
       <c r="H19" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -740,7 +776,7 @@
       </c>
       <c r="D20" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E20" s="8">
         <v>0.0</v>
@@ -752,7 +788,7 @@
         <v>0.0</v>
       </c>
       <c r="H20" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -765,7 +801,7 @@
       </c>
       <c r="D21" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E21" s="8">
         <v>0.0</v>
@@ -777,7 +813,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -790,7 +826,7 @@
       </c>
       <c r="D22" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E22" s="8">
         <v>0.0</v>
@@ -802,7 +838,7 @@
         <v>0.0</v>
       </c>
       <c r="H22" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -815,7 +851,7 @@
       </c>
       <c r="D23" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E23" s="8">
         <v>0.0</v>
@@ -827,7 +863,7 @@
         <v>0.0</v>
       </c>
       <c r="H23" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
@@ -840,7 +876,7 @@
       </c>
       <c r="D24" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E24" s="8">
         <v>0.0</v>
@@ -852,7 +888,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +901,7 @@
       </c>
       <c r="D25" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E25" s="8">
         <v>0.0</v>
@@ -877,7 +913,7 @@
         <v>0.0</v>
       </c>
       <c r="H25" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
@@ -890,7 +926,7 @@
       </c>
       <c r="D26" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E26" s="8">
         <v>0.0</v>
@@ -902,7 +938,7 @@
         <v>0.0</v>
       </c>
       <c r="H26" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
@@ -915,7 +951,7 @@
       </c>
       <c r="D27" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E27" s="8">
         <v>0.0</v>
@@ -927,7 +963,7 @@
         <v>0.0</v>
       </c>
       <c r="H27" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -940,7 +976,7 @@
       </c>
       <c r="D28" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E28" s="8">
         <v>0.0</v>
@@ -952,7 +988,7 @@
         <v>0.0</v>
       </c>
       <c r="H28" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -965,7 +1001,7 @@
       </c>
       <c r="D29" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E29" s="8">
         <v>0.0</v>
@@ -977,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
@@ -990,7 +1026,7 @@
       </c>
       <c r="D30" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E30" s="8">
         <v>0.0</v>
@@ -1002,7 +1038,7 @@
         <v>0.0</v>
       </c>
       <c r="H30" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
@@ -1015,7 +1051,7 @@
       </c>
       <c r="D31" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E31" s="8">
         <v>0.0</v>
@@ -1027,7 +1063,7 @@
         <v>0.0</v>
       </c>
       <c r="H31" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
@@ -1040,7 +1076,7 @@
       </c>
       <c r="D32" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E32" s="8">
         <v>0.0</v>
@@ -1052,7 +1088,7 @@
         <v>0.0</v>
       </c>
       <c r="H32" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
@@ -1065,7 +1101,7 @@
       </c>
       <c r="D33" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E33" s="8">
         <v>0.0</v>
@@ -1077,7 +1113,7 @@
         <v>0.0</v>
       </c>
       <c r="H33" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -1086,20 +1122,20 @@
       </c>
       <c r="C34" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>€0.00</v>
+        <v>€4.00</v>
       </c>
       <c r="D34" s="8" t="str">
         <f t="shared" si="2"/>
         <v>€0.00</v>
       </c>
       <c r="E34" s="8">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F34" s="8">
         <v>0.0</v>
       </c>
       <c r="G34" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H34" s="8">
         <v>0.0</v>
@@ -1115,7 +1151,7 @@
       </c>
       <c r="D35" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <v>€1.00</v>
       </c>
       <c r="E35" s="8">
         <v>0.0</v>
@@ -1127,7 +1163,7 @@
         <v>0.0</v>
       </c>
       <c r="H35" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
@@ -1153,6 +1189,11 @@
       <c r="C40" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="E40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="B41" s="11"/>
@@ -1195,14 +1236,55 @@
       <c r="C50" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="E38:G38"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E40:G40"/>
   </mergeCells>
+  <conditionalFormatting sqref="D4:D35">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H35">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D35">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H35">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G35">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C35">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F35">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="7">
+      <formula>LEN(TRIM(F4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E35">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/nesk_i_fonda.xlsx
+++ b/nesk_i_fonda.xlsx
@@ -722,23 +722,23 @@
       </c>
       <c r="C18" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>€0.00</v>
+        <v>€4.00</v>
       </c>
       <c r="D18" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <v>€0.00</v>
       </c>
       <c r="E18" s="8">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F18" s="8">
         <v>0.0</v>
       </c>
       <c r="G18" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H18" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">

--- a/nesk_i_fonda.xlsx
+++ b/nesk_i_fonda.xlsx
@@ -572,14 +572,14 @@
       </c>
       <c r="C12" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>€0.00</v>
+        <v>€3.00</v>
       </c>
       <c r="D12" s="8" t="str">
         <f t="shared" si="2"/>
         <v>€1.00</v>
       </c>
       <c r="E12" s="8">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F12" s="8">
         <v>0.0</v>
@@ -922,23 +922,23 @@
       </c>
       <c r="C26" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>€0.00</v>
+        <v>€4.00</v>
       </c>
       <c r="D26" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <v>€0.00</v>
       </c>
       <c r="E26" s="8">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F26" s="8">
         <v>0.0</v>
       </c>
       <c r="G26" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H26" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">

--- a/nesk_i_fonda.xlsx
+++ b/nesk_i_fonda.xlsx
@@ -422,23 +422,23 @@
       </c>
       <c r="C6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>€0.00</v>
+        <v>€4.00</v>
       </c>
       <c r="D6" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <v>€0.00</v>
       </c>
       <c r="E6" s="8">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F6" s="8">
         <v>0.0</v>
       </c>
       <c r="G6" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H6" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -522,23 +522,23 @@
       </c>
       <c r="C10" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>€0.00</v>
+        <v>€4.00</v>
       </c>
       <c r="D10" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <v>€0.00</v>
       </c>
       <c r="E10" s="8">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F10" s="8">
         <v>0.0</v>
       </c>
       <c r="G10" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H10" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -622,23 +622,23 @@
       </c>
       <c r="C14" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>€0.00</v>
+        <v>€4.00</v>
       </c>
       <c r="D14" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <v>€0.00</v>
       </c>
       <c r="E14" s="8">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F14" s="8">
         <v>0.0</v>
       </c>
       <c r="G14" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H14" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">

--- a/nesk_i_fonda.xlsx
+++ b/nesk_i_fonda.xlsx
@@ -16,7 +16,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B40">
+    <comment authorId="0" ref="A39">
       <text>
         <t xml:space="preserve">Čia visokiomstais fondo išlaidoms, t.y. dalykams kurie bus apmokėti iš fondo pinigų. Šiaip geriausia tai būtų, kad čia nieko  nereikėtų rašyt, hehe.</t>
       </text>
@@ -335,73 +335,101 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="25.71"/>
-    <col customWidth="1" min="3" max="8" width="9.29"/>
+    <col customWidth="1" min="1" max="1" width="25.71"/>
+    <col customWidth="1" min="2" max="7" width="9.29"/>
   </cols>
   <sheetData>
-    <row r="2" ht="30.75" customHeight="1">
-      <c r="C2" s="1" t="s">
+    <row r="1" ht="30.75" customHeight="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3"/>
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f t="shared" ref="B3:B34" si="1">D3 + F3</f>
+        <v>€4.00</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f t="shared" ref="C3:C34" si="2">E3+G3</f>
+        <v>€0.00</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="B4" s="7" t="s">
-        <v>5</v>
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€4.00</v>
       </c>
       <c r="C4" s="8" t="str">
-        <f t="shared" ref="C4:C35" si="1">E4 + G4</f>
-        <v>€0.00</v>
-      </c>
-      <c r="D4" s="8" t="str">
-        <f t="shared" ref="D4:D35" si="2">F4+H4</f>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€0.00</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3.0</v>
       </c>
       <c r="E4" s="8">
         <v>0.0</v>
       </c>
       <c r="F4" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" s="8">
         <v>0.0</v>
       </c>
-      <c r="H4" s="8">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="5">
-      <c r="B5" s="9" t="s">
-        <v>6</v>
+      <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€0.00</v>
       </c>
       <c r="C5" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D5" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€1.00</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.0</v>
       </c>
       <c r="E5" s="8">
         <v>0.0</v>
@@ -410,26 +438,26 @@
         <v>0.0</v>
       </c>
       <c r="G5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="7" t="s">
-        <v>7</v>
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€0.00</v>
       </c>
       <c r="C6" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€4.00</v>
-      </c>
-      <c r="D6" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <f t="shared" si="2"/>
+        <v>€1.00</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.0</v>
       </c>
       <c r="E6" s="8">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="8">
         <v>0.0</v>
@@ -437,21 +465,21 @@
       <c r="G6" s="8">
         <v>1.0</v>
       </c>
-      <c r="H6" s="8">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
-        <v>8</v>
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€0.00</v>
       </c>
       <c r="C7" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D7" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€1.00</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.0</v>
       </c>
       <c r="E7" s="8">
         <v>0.0</v>
@@ -460,76 +488,76 @@
         <v>0.0</v>
       </c>
       <c r="G7" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7" t="s">
-        <v>9</v>
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€4.00</v>
       </c>
       <c r="C8" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D8" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€0.00</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3.0</v>
       </c>
       <c r="E8" s="8">
         <v>0.0</v>
       </c>
       <c r="F8" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G8" s="8">
         <v>0.0</v>
       </c>
-      <c r="H8" s="8">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="s">
-        <v>10</v>
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€4.00</v>
       </c>
       <c r="C9" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D9" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€0.00</v>
+      </c>
+      <c r="D9" s="8">
+        <v>3.0</v>
       </c>
       <c r="E9" s="8">
         <v>0.0</v>
       </c>
       <c r="F9" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G9" s="8">
         <v>0.0</v>
       </c>
-      <c r="H9" s="8">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="10">
-      <c r="B10" s="7" t="s">
-        <v>11</v>
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€0.00</v>
       </c>
       <c r="C10" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€4.00</v>
-      </c>
-      <c r="D10" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <f t="shared" si="2"/>
+        <v>€1.00</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.0</v>
       </c>
       <c r="E10" s="8">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="8">
         <v>0.0</v>
@@ -537,21 +565,21 @@
       <c r="G10" s="8">
         <v>1.0</v>
       </c>
-      <c r="H10" s="8">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="s">
-        <v>12</v>
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€3.00</v>
       </c>
       <c r="C11" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D11" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€1.00</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3.0</v>
       </c>
       <c r="E11" s="8">
         <v>0.0</v>
@@ -560,76 +588,76 @@
         <v>0.0</v>
       </c>
       <c r="G11" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="s">
-        <v>13</v>
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€0.00</v>
       </c>
       <c r="C12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€3.00</v>
-      </c>
-      <c r="D12" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€1.00</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.0</v>
       </c>
       <c r="E12" s="8">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="8">
         <v>0.0</v>
       </c>
       <c r="G12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="s">
-        <v>14</v>
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€4.00</v>
       </c>
       <c r="C13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D13" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€0.00</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3.0</v>
       </c>
       <c r="E13" s="8">
         <v>0.0</v>
       </c>
       <c r="F13" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G13" s="8">
         <v>0.0</v>
       </c>
-      <c r="H13" s="8">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="s">
-        <v>15</v>
+      <c r="A14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€0.00</v>
       </c>
       <c r="C14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€4.00</v>
-      </c>
-      <c r="D14" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <f t="shared" si="2"/>
+        <v>€1.00</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.0</v>
       </c>
       <c r="E14" s="8">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" s="8">
         <v>0.0</v>
@@ -637,46 +665,46 @@
       <c r="G14" s="8">
         <v>1.0</v>
       </c>
-      <c r="H14" s="8">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="s">
-        <v>16</v>
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€4.00</v>
       </c>
       <c r="C15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D15" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€0.00</v>
+      </c>
+      <c r="D15" s="8">
+        <v>3.0</v>
       </c>
       <c r="E15" s="8">
         <v>0.0</v>
       </c>
       <c r="F15" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G15" s="8">
         <v>0.0</v>
       </c>
-      <c r="H15" s="8">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="16">
-      <c r="B16" s="7" t="s">
-        <v>17</v>
+      <c r="A16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€0.00</v>
       </c>
       <c r="C16" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D16" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€1.00</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.0</v>
       </c>
       <c r="E16" s="8">
         <v>0.0</v>
@@ -685,51 +713,51 @@
         <v>0.0</v>
       </c>
       <c r="G16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="s">
-        <v>18</v>
+      <c r="A17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€4.00</v>
       </c>
       <c r="C17" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D17" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€0.00</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3.0</v>
       </c>
       <c r="E17" s="8">
         <v>0.0</v>
       </c>
       <c r="F17" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G17" s="8">
         <v>0.0</v>
       </c>
-      <c r="H17" s="8">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="18">
-      <c r="B18" s="7" t="s">
-        <v>19</v>
+      <c r="A18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€0.00</v>
       </c>
       <c r="C18" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€4.00</v>
-      </c>
-      <c r="D18" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <f t="shared" si="2"/>
+        <v>€1.00</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.0</v>
       </c>
       <c r="E18" s="8">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="8">
         <v>0.0</v>
@@ -737,46 +765,46 @@
       <c r="G18" s="8">
         <v>1.0</v>
       </c>
-      <c r="H18" s="8">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="19">
-      <c r="B19" s="7" t="s">
-        <v>20</v>
+      <c r="A19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€4.00</v>
       </c>
       <c r="C19" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D19" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€0.00</v>
+      </c>
+      <c r="D19" s="8">
+        <v>3.0</v>
       </c>
       <c r="E19" s="8">
         <v>0.0</v>
       </c>
       <c r="F19" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G19" s="8">
         <v>0.0</v>
       </c>
-      <c r="H19" s="8">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="20">
-      <c r="B20" s="7" t="s">
-        <v>21</v>
+      <c r="A20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€0.00</v>
       </c>
       <c r="C20" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D20" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€1.00</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.0</v>
       </c>
       <c r="E20" s="8">
         <v>0.0</v>
@@ -785,23 +813,23 @@
         <v>0.0</v>
       </c>
       <c r="G20" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="7" t="s">
-        <v>22</v>
+      <c r="A21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€0.00</v>
       </c>
       <c r="C21" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D21" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€1.00</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.0</v>
       </c>
       <c r="E21" s="8">
         <v>0.0</v>
@@ -810,23 +838,23 @@
         <v>0.0</v>
       </c>
       <c r="G21" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="7" t="s">
-        <v>23</v>
+      <c r="A22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€0.00</v>
       </c>
       <c r="C22" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D22" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€1.00</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.0</v>
       </c>
       <c r="E22" s="8">
         <v>0.0</v>
@@ -835,23 +863,23 @@
         <v>0.0</v>
       </c>
       <c r="G22" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="7" t="s">
-        <v>24</v>
+      <c r="A23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€0.00</v>
       </c>
       <c r="C23" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D23" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€1.00</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.0</v>
       </c>
       <c r="E23" s="8">
         <v>0.0</v>
@@ -860,123 +888,123 @@
         <v>0.0</v>
       </c>
       <c r="G23" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="7" t="s">
-        <v>25</v>
+      <c r="A24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€4.00</v>
       </c>
       <c r="C24" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D24" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€0.00</v>
+      </c>
+      <c r="D24" s="8">
+        <v>3.0</v>
       </c>
       <c r="E24" s="8">
         <v>0.0</v>
       </c>
       <c r="F24" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G24" s="8">
         <v>0.0</v>
       </c>
-      <c r="H24" s="8">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="25">
-      <c r="B25" s="7" t="s">
-        <v>26</v>
+      <c r="A25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€4.00</v>
       </c>
       <c r="C25" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D25" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€0.00</v>
+      </c>
+      <c r="D25" s="8">
+        <v>3.0</v>
       </c>
       <c r="E25" s="8">
         <v>0.0</v>
       </c>
       <c r="F25" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G25" s="8">
         <v>0.0</v>
       </c>
-      <c r="H25" s="8">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="26">
-      <c r="B26" s="7" t="s">
-        <v>27</v>
+      <c r="A26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€4.00</v>
       </c>
       <c r="C26" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€4.00</v>
-      </c>
-      <c r="D26" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <f t="shared" si="2"/>
+        <v>€0.00</v>
+      </c>
+      <c r="D26" s="8">
+        <v>3.0</v>
       </c>
       <c r="E26" s="8">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F26" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G26" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="H26" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="7" t="s">
-        <v>28</v>
+      <c r="A27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€4.00</v>
       </c>
       <c r="C27" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D27" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€0.00</v>
+      </c>
+      <c r="D27" s="8">
+        <v>3.0</v>
       </c>
       <c r="E27" s="8">
         <v>0.0</v>
       </c>
       <c r="F27" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G27" s="8">
         <v>0.0</v>
       </c>
-      <c r="H27" s="8">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="28">
-      <c r="B28" s="7" t="s">
-        <v>29</v>
+      <c r="A28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€0.00</v>
       </c>
       <c r="C28" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D28" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€1.00</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.0</v>
       </c>
       <c r="E28" s="8">
         <v>0.0</v>
@@ -985,23 +1013,23 @@
         <v>0.0</v>
       </c>
       <c r="G28" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="7" t="s">
-        <v>30</v>
+      <c r="A29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€0.00</v>
       </c>
       <c r="C29" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D29" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€1.00</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.0</v>
       </c>
       <c r="E29" s="8">
         <v>0.0</v>
@@ -1010,23 +1038,23 @@
         <v>0.0</v>
       </c>
       <c r="G29" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H29" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="7" t="s">
-        <v>31</v>
+      <c r="A30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€0.00</v>
       </c>
       <c r="C30" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D30" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€1.00</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.0</v>
       </c>
       <c r="E30" s="8">
         <v>0.0</v>
@@ -1035,23 +1063,23 @@
         <v>0.0</v>
       </c>
       <c r="G30" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H30" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="7" t="s">
-        <v>32</v>
+      <c r="A31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€0.00</v>
       </c>
       <c r="C31" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D31" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€1.00</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.0</v>
       </c>
       <c r="E31" s="8">
         <v>0.0</v>
@@ -1060,76 +1088,76 @@
         <v>0.0</v>
       </c>
       <c r="G31" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H31" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="7" t="s">
-        <v>33</v>
+      <c r="A32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€4.00</v>
       </c>
       <c r="C32" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D32" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€0.00</v>
+      </c>
+      <c r="D32" s="8">
+        <v>3.0</v>
       </c>
       <c r="E32" s="8">
         <v>0.0</v>
       </c>
       <c r="F32" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G32" s="8">
         <v>0.0</v>
       </c>
-      <c r="H32" s="8">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="33">
-      <c r="B33" s="7" t="s">
-        <v>34</v>
+      <c r="A33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€4.00</v>
       </c>
       <c r="C33" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D33" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <f t="shared" si="2"/>
+        <v>€0.00</v>
+      </c>
+      <c r="D33" s="8">
+        <v>3.0</v>
       </c>
       <c r="E33" s="8">
         <v>0.0</v>
       </c>
       <c r="F33" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G33" s="8">
         <v>0.0</v>
       </c>
-      <c r="H33" s="8">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="34">
-      <c r="B34" s="7" t="s">
-        <v>35</v>
+      <c r="A34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>€0.00</v>
       </c>
       <c r="C34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€4.00</v>
-      </c>
-      <c r="D34" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€0.00</v>
+        <f t="shared" si="2"/>
+        <v>€1.00</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0.0</v>
       </c>
       <c r="E34" s="8">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F34" s="8">
         <v>0.0</v>
@@ -1137,150 +1165,122 @@
       <c r="G34" s="8">
         <v>1.0</v>
       </c>
-      <c r="H34" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€0.00</v>
-      </c>
-      <c r="D35" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>€1.00</v>
-      </c>
-      <c r="E35" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H35" s="8">
-        <v>1.0</v>
-      </c>
+    </row>
+    <row r="36">
+      <c r="D36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37">
-      <c r="E37" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38">
-      <c r="E38" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="7" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="11"/>
-      <c r="C41" s="7"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="11"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
     </row>
     <row r="42">
+      <c r="A42" s="12"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
     </row>
     <row r="43">
+      <c r="A43" s="12"/>
       <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
     </row>
     <row r="44">
+      <c r="A44" s="12"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
     </row>
     <row r="45">
+      <c r="A45" s="12"/>
       <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
     </row>
     <row r="46">
+      <c r="A46" s="12"/>
       <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
     </row>
     <row r="47">
+      <c r="A47" s="12"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
     </row>
     <row r="48">
+      <c r="A48" s="12"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
     </row>
     <row r="49">
+      <c r="A49" s="12"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D39:F39"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:D35">
+  <conditionalFormatting sqref="C3:C34">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H35">
+  <conditionalFormatting sqref="G3:G34">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D35">
+  <conditionalFormatting sqref="C3:C34">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H35">
+  <conditionalFormatting sqref="G3:G34">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G35">
+  <conditionalFormatting sqref="F3:F34">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C35">
+  <conditionalFormatting sqref="B3:B34">
     <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F35">
+  <conditionalFormatting sqref="E3:E34">
     <cfRule type="notContainsBlanks" dxfId="1" priority="7">
-      <formula>LEN(TRIM(F4))&gt;0</formula>
+      <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E35">
+  <conditionalFormatting sqref="D3:D34">
     <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
